--- a/0_필요한자료/양식.xlsx
+++ b/0_필요한자료/양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr_auto_valid_check\0_필요한자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFF365E-34B1-441C-90E4-11053B24B34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E54DD4-7835-4B4E-8F25-450D3EBBF5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C2B1EACF-4B31-4BD5-A047-0F53EEE3E3CC}"/>
   </bookViews>
@@ -113,11 +113,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재까지 가능한 institution
-: [한국세무사회,대한상공회의소,국사편찬위원회,한국생산성본부,opic,초본,건강보험자격득실확인서 ]
+    <r>
+      <t xml:space="preserve">현재까지 가능한 institution
+: [한국세무사회,대한상공회의소,국사편찬위원회,한국생산성본부,opic,초본,등본, 건강보험자격득실확인서, 정부24관련 ]
 ※ passnum -&gt; 자격번호 등 진위여부할 때 필요한거
-institution : 가능한 institution만 넣을 것
-certificateName : 자격증 or 서류명</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>institution : 가능한 institution만 넣을 것. 다른 거 넣으면 안 됨. 가능한 institution에서만 넣어야됨. 다른 글자 ㄴㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+certificateName : 자격증 or 서류명
+단, 한국생산성본부는 birth에 yy.mm.dd 넣어줘야됨</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +194,23 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -220,10 +274,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -627,16 +681,16 @@
       <c r="H2" s="1"/>
       <c r="I2" s="4"/>
       <c r="J2" s="1"/>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -659,124 +713,124 @@
       <c r="H3" s="1"/>
       <c r="I3" s="4"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/0_필요한자료/양식.xlsx
+++ b/0_필요한자료/양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr_auto_valid_check\0_필요한자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E54DD4-7835-4B4E-8F25-450D3EBBF5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA9CD65-D9C8-4D1C-BEEB-04540DA892E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C2B1EACF-4B31-4BD5-A047-0F53EEE3E3CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>registerationNumber</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -155,6 +155,104 @@
 certificateName : 자격증 or 서류명
 단, 한국생산성본부는 birth에 yy.mm.dd 넣어줘야됨</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extraNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관별 필요정보 및 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국세무사회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한상공회의소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국사편찬위원회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국생산성본부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강보험자격득실확인서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적증명서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업증명서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민연금가입자증명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issuedDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민연금공단 발급분일 경우 '검증번호'추가 입력해야됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민연금공단 발급분일 경우 '발급일' yyyy-mm-dd로필요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17xx-xxxx-xxxx-xxxx &lt;- 정부24꺼라 그냥 passNum만 적어주면됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민연금가입자증명 &lt;-이거로 기입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정부 24에서 발급받은 것만 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서번호(17xx-xxxx-xxxx-xxxx)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서번호
+- G + 숫자 : 국민연금공단에서 발급받은 것
+- 17XX-XXXX … : 정부24에서 발급받은 것</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -254,6 +352,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -261,7 +370,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,15 +378,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -614,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D973DCCA-2735-4690-8F56-DD8C531CE74B}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:S14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -625,10 +747,14 @@
     <col min="1" max="1" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.09765625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38" customWidth="1"/>
+    <col min="19" max="19" width="51.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,26 +767,32 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -673,26 +805,28 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -705,136 +839,295 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="O16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="18" spans="15:21" x14ac:dyDescent="0.4">
+      <c r="O18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="15:21" x14ac:dyDescent="0.4">
+      <c r="O19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="15:21" x14ac:dyDescent="0.4">
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="15:21" x14ac:dyDescent="0.4">
+      <c r="O21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="15:21" x14ac:dyDescent="0.4">
+      <c r="O22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="15:21" x14ac:dyDescent="0.4">
+      <c r="O23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="15:21" x14ac:dyDescent="0.4">
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="15:21" x14ac:dyDescent="0.4">
+      <c r="O25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="15:21" ht="191.4" x14ac:dyDescent="0.4">
+      <c r="O26" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" t="s">
+        <v>41</v>
+      </c>
+      <c r="S26" t="s">
+        <v>41</v>
+      </c>
+      <c r="T26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="15:21" x14ac:dyDescent="0.4">
+      <c r="O27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>32</v>
+      </c>
+      <c r="R27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="15:21" x14ac:dyDescent="0.4">
+      <c r="O28" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="15:21" x14ac:dyDescent="0.4">
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>40</v>
+      </c>
+      <c r="R29" t="s">
+        <v>41</v>
+      </c>
+      <c r="S29" t="s">
+        <v>37</v>
+      </c>
+      <c r="T29" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L2:S14"/>
+  <mergeCells count="2">
+    <mergeCell ref="O2:V14"/>
+    <mergeCell ref="O16:R16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_필요한자료/양식.xlsx
+++ b/0_필요한자료/양식.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr_auto_valid_check\0_필요한자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA9CD65-D9C8-4D1C-BEEB-04540DA892E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C28CB2-EDEE-4755-A7D1-649F70B779C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C2B1EACF-4B31-4BD5-A047-0F53EEE3E3CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>registerationNumber</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -253,6 +253,18 @@
     <t>문서번호
 - G + 숫자 : 국민연금공단에서 발급받은 것
 - 17XX-XXXX … : 정부24에서 발급받은 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국사능력 1급 or 2급</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,13 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -400,6 +406,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -739,7 +751,7 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -747,10 +759,11 @@
     <col min="1" max="1" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.09765625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.09765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.09765625" style="9" customWidth="1"/>
     <col min="15" max="15" width="22.19921875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="38" customWidth="1"/>
+    <col min="17" max="17" width="31.69921875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="51.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -805,26 +818,26 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="9"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -839,142 +852,148 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="10"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
       <c r="S16" s="4"/>
     </row>
     <row r="18" spans="15:21" x14ac:dyDescent="0.4">
@@ -996,7 +1015,7 @@
       <c r="T18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U18" s="7" t="s">
+      <c r="U18" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1014,6 +1033,15 @@
       <c r="O21" t="s">
         <v>25</v>
       </c>
+      <c r="P21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" spans="15:21" x14ac:dyDescent="0.4">
       <c r="O22" t="s">
@@ -1035,11 +1063,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="15:21" ht="191.4" x14ac:dyDescent="0.4">
+    <row r="26" spans="15:21" ht="52.2" x14ac:dyDescent="0.4">
       <c r="O26" t="s">
         <v>31</v>
       </c>
-      <c r="P26" s="8" t="s">
+      <c r="P26" s="6" t="s">
         <v>44</v>
       </c>
       <c r="Q26" t="s">

--- a/0_필요한자료/양식.xlsx
+++ b/0_필요한자료/양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr_auto_valid_check\0_필요한자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C28CB2-EDEE-4755-A7D1-649F70B779C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED46B6D0-BC1C-4E22-92F6-98D9ACC0241B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C2B1EACF-4B31-4BD5-A047-0F53EEE3E3CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>registerationNumber</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -256,15 +256,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11-111111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>한국사능력 1급 or 2급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4자리-4자리-4자리-4자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,7 +755,7 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1034,23 +1038,29 @@
         <v>25</v>
       </c>
       <c r="P21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q21" t="s">
         <v>46</v>
       </c>
-      <c r="Q21" t="s">
-        <v>47</v>
-      </c>
       <c r="R21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="15:21" x14ac:dyDescent="0.4">
       <c r="O22" t="s">
         <v>27</v>
       </c>
+      <c r="R22" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="15:21" x14ac:dyDescent="0.4">
       <c r="O23" t="s">
         <v>28</v>
+      </c>
+      <c r="P23" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="15:21" x14ac:dyDescent="0.4">

--- a/0_필요한자료/양식.xlsx
+++ b/0_필요한자료/양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr_auto_valid_check\0_필요한자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED46B6D0-BC1C-4E22-92F6-98D9ACC0241B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0181CD19-31EF-4113-BFE4-B569D8A7E959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C2B1EACF-4B31-4BD5-A047-0F53EEE3E3CC}"/>
   </bookViews>
@@ -386,14 +386,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,17 +751,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D973DCCA-2735-4690-8F56-DD8C531CE74B}">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.09765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.09765625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="8"/>
+    <col min="3" max="3" width="13.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.09765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.796875" style="8"/>
+    <col min="8" max="8" width="17.09765625" style="8" customWidth="1"/>
+    <col min="9" max="12" width="8.796875" style="8"/>
     <col min="15" max="15" width="22.19921875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="38" customWidth="1"/>
     <col min="17" max="17" width="31.69921875" bestFit="1" customWidth="1"/>
@@ -772,233 +772,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="O2" s="10" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="O2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="4"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="3"/>
     </row>
     <row r="18" spans="15:21" x14ac:dyDescent="0.4">
       <c r="O18" s="1" t="s">
@@ -1010,16 +1010,16 @@
       <c r="Q18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="S18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       <c r="O26" t="s">
         <v>31</v>
       </c>
-      <c r="P26" s="6" t="s">
+      <c r="P26" s="5" t="s">
         <v>44</v>
       </c>
       <c r="Q26" t="s">

--- a/0_필요한자료/양식.xlsx
+++ b/0_필요한자료/양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr_auto_valid_check\0_필요한자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0181CD19-31EF-4113-BFE4-B569D8A7E959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FED281A-093A-4347-8695-86B87491B7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C2B1EACF-4B31-4BD5-A047-0F53EEE3E3CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C2B1EACF-4B31-4BD5-A047-0F53EEE3E3CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>registerationNumber</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -113,170 +113,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">현재까지 가능한 institution
-: [한국세무사회,대한상공회의소,국사편찬위원회,한국생산성본부,opic,초본,등본, 건강보험자격득실확인서, 정부24관련 ]
-※ passnum -&gt; 자격번호 등 진위여부할 때 필요한거
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>institution : 가능한 institution만 넣을 것. 다른 거 넣으면 안 됨. 가능한 institution에서만 넣어야됨. 다른 글자 ㄴㄴ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ㄴ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-certificateName : 자격증 or 서류명
-단, 한국생산성본부는 birth에 yy.mm.dd 넣어줘야됨</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>extraNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기관별 필요정보 및 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국세무사회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대한상공회의소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국사편찬위원회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국생산성본부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초본</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등본</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강보험자격득실확인서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성적증명서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업증명서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국민연금가입자증명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>issuedDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>국민연금공단 발급분일 경우 '검증번호'추가 입력해야됨</t>
+    <t>0001-000006</t>
+  </si>
+  <si>
+    <t>64-107077</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>국민연금공단 발급분일 경우 '발급일' yyyy-mm-dd로필요.</t>
+    <t>한국사능력검정시험(1급)</t>
+  </si>
+  <si>
+    <t>19980719</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>17xx-xxxx-xxxx-xxxx &lt;- 정부24꺼라 그냥 passNum만 적어주면됨.</t>
+    <t>김철수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문서번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국민연금가입자증명 &lt;-이거로 기입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정부 24에서 발급받은 것만 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서번호(17xx-xxxx-xxxx-xxxx)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서번호
-- G + 숫자 : 국민연금공단에서 발급받은 것
-- 17XX-XXXX … : 정부24에서 발급받은 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국사능력 1급 or 2급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4자리-4자리-4자리-4자리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>국사편찬위원회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,23 +184,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -345,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -368,17 +222,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -386,19 +229,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,18 +243,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{1D7CD24D-4F22-42EC-BB01-07875935899A}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -749,425 +589,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D973DCCA-2735-4690-8F56-DD8C531CE74B}">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.19921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="8"/>
-    <col min="3" max="3" width="13.59765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.09765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.796875" style="8"/>
-    <col min="8" max="8" width="17.09765625" style="8" customWidth="1"/>
-    <col min="9" max="12" width="8.796875" style="8"/>
-    <col min="15" max="15" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38" customWidth="1"/>
-    <col min="17" max="17" width="31.69921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="51.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="4"/>
+    <col min="3" max="3" width="14.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.09765625" style="4" customWidth="1"/>
+    <col min="9" max="12" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="O2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="O16" s="10" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="3"/>
-    </row>
-    <row r="18" spans="15:21" x14ac:dyDescent="0.4">
-      <c r="O18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="15:21" x14ac:dyDescent="0.4">
-      <c r="O19" t="s">
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="15:21" x14ac:dyDescent="0.4">
-      <c r="O20" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="15:21" x14ac:dyDescent="0.4">
-      <c r="O21" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>46</v>
-      </c>
-      <c r="R21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="15:21" x14ac:dyDescent="0.4">
-      <c r="O22" t="s">
-        <v>27</v>
-      </c>
-      <c r="R22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="15:21" x14ac:dyDescent="0.4">
-      <c r="O23" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="15:21" x14ac:dyDescent="0.4">
-      <c r="O24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="15:21" x14ac:dyDescent="0.4">
-      <c r="O25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="15:21" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="O26" t="s">
-        <v>31</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>31</v>
-      </c>
-      <c r="R26" t="s">
-        <v>41</v>
-      </c>
-      <c r="S26" t="s">
-        <v>41</v>
-      </c>
-      <c r="T26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="15:21" x14ac:dyDescent="0.4">
-      <c r="O27" t="s">
-        <v>32</v>
-      </c>
-      <c r="P27" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R27" t="s">
-        <v>41</v>
-      </c>
-      <c r="S27" t="s">
-        <v>41</v>
-      </c>
-      <c r="T27" t="s">
-        <v>41</v>
-      </c>
-      <c r="U27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="15:21" x14ac:dyDescent="0.4">
-      <c r="O28" t="s">
-        <v>33</v>
-      </c>
-      <c r="P28" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>33</v>
-      </c>
-      <c r="R28" t="s">
-        <v>41</v>
-      </c>
-      <c r="S28" t="s">
-        <v>41</v>
-      </c>
-      <c r="T28" t="s">
-        <v>41</v>
-      </c>
-      <c r="U28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="15:21" x14ac:dyDescent="0.4">
-      <c r="O29" t="s">
-        <v>34</v>
-      </c>
-      <c r="P29" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>40</v>
-      </c>
-      <c r="R29" t="s">
-        <v>41</v>
-      </c>
-      <c r="S29" t="s">
-        <v>37</v>
-      </c>
-      <c r="T29" t="s">
-        <v>36</v>
-      </c>
-      <c r="U29" t="s">
-        <v>38</v>
-      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="O2:V14"/>
-    <mergeCell ref="O16:R16"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F4" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>